--- a/METRADO DIARIO 2024/Metrado Diario 2024 palacio TIC.xlsx
+++ b/METRADO DIARIO 2024/Metrado Diario 2024 palacio TIC.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\METRADO DIARIO 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6405C-A0C4-4EB7-948D-D21E63F61266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3C1463-2E2E-40BF-A800-0C5EC08DCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B2598447-71B1-4FB3-A2FD-33384CB0F07F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{B2598447-71B1-4FB3-A2FD-33384CB0F07F}"/>
   </bookViews>
   <sheets>
     <sheet name="METRADO DIARIO ENERO" sheetId="2" r:id="rId1"/>
     <sheet name="METRADO GENERAL ENERO" sheetId="1" r:id="rId2"/>
     <sheet name="METRADO DIARIO FEBRERO" sheetId="4" r:id="rId3"/>
     <sheet name="METRADO GENERAL FEBRERO" sheetId="3" r:id="rId4"/>
+    <sheet name="METRADO DIARIO MARZO" sheetId="5" r:id="rId5"/>
+    <sheet name="METRADO GENERAL MARZO" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="79">
   <si>
     <t>SOLUCIONES DE TECNOLOGÍA DE INFORMACIÓN Y COMUNICACIONES (TIC)</t>
   </si>
@@ -817,19 +819,19 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,13 +1184,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83">
+      <c r="A1" s="85">
         <v>45313</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -1225,7 +1227,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="84">
+      <c r="E4" s="82">
         <f>SUM(D7:D8)</f>
         <v>40</v>
       </c>
@@ -1243,7 +1245,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="85"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1254,7 +1256,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="86"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -1283,13 +1285,13 @@
       <c r="E8" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="A10" s="85">
         <v>45314</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -1326,7 +1328,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="84">
+      <c r="E13" s="82">
         <f>SUM(D16:D17)</f>
         <v>40</v>
       </c>
@@ -1340,7 +1342,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="85"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1351,7 +1353,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="86"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
@@ -1380,13 +1382,13 @@
       <c r="E17" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="A19" s="85">
         <v>45315</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -1423,7 +1425,7 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="84">
+      <c r="E22" s="82">
         <f>SUM(D25:D26)</f>
         <v>30</v>
       </c>
@@ -1437,7 +1439,7 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="85"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -1448,7 +1450,7 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="86"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
@@ -1484,13 +1486,13 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="83">
+      <c r="A28" s="85">
         <v>45316</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -1527,7 +1529,7 @@
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="84">
+      <c r="E31" s="82">
         <f>SUM(D34:D35)</f>
         <v>40</v>
       </c>
@@ -1541,7 +1543,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="85"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -1552,7 +1554,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="86"/>
+      <c r="E33" s="84"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
@@ -1581,13 +1583,13 @@
       <c r="E35" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
+      <c r="A37" s="85">
         <v>45317</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
@@ -1624,7 +1626,7 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="84">
+      <c r="E40" s="82">
         <f>SUM(D43:D45)</f>
         <v>40</v>
       </c>
@@ -1638,7 +1640,7 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="85"/>
+      <c r="E41" s="83"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -1649,7 +1651,7 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="86"/>
+      <c r="E42" s="84"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
@@ -1672,13 +1674,13 @@
       <c r="E44" s="23"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="83">
+      <c r="A46" s="85">
         <v>45320</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
@@ -1715,7 +1717,7 @@
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="84">
+      <c r="E49" s="82">
         <f>SUM(D52)</f>
         <v>12</v>
       </c>
@@ -1729,7 +1731,7 @@
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="85"/>
+      <c r="E50" s="83"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
@@ -1740,7 +1742,7 @@
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="85"/>
+      <c r="E51" s="83"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
@@ -1753,7 +1755,7 @@
       <c r="D52" s="18">
         <v>12</v>
       </c>
-      <c r="E52" s="86"/>
+      <c r="E52" s="84"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
@@ -1782,7 +1784,7 @@
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="82">
+      <c r="E55" s="86">
         <f>SUM(D58:D59)</f>
         <v>4</v>
       </c>
@@ -1796,7 +1798,7 @@
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="82"/>
+      <c r="E56" s="86"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
@@ -1809,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="82"/>
+      <c r="E57" s="86"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -1853,7 +1855,7 @@
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
-      <c r="E61" s="84">
+      <c r="E61" s="82">
         <f>SUM(D62:D64)</f>
         <v>7</v>
       </c>
@@ -1867,7 +1869,7 @@
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="85"/>
+      <c r="E62" s="83"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
@@ -1880,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="18"/>
-      <c r="E63" s="85"/>
+      <c r="E63" s="83"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
@@ -1895,16 +1897,16 @@
       <c r="D64" s="18">
         <v>7</v>
       </c>
-      <c r="E64" s="86"/>
+      <c r="E64" s="84"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="83">
+      <c r="A66" s="85">
         <v>45321</v>
       </c>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
@@ -1930,7 +1932,7 @@
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="82">
+      <c r="E68" s="86">
         <f>SUM(D72)</f>
         <v>24</v>
       </c>
@@ -1944,7 +1946,7 @@
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="82"/>
+      <c r="E69" s="86"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -1955,7 +1957,7 @@
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="82"/>
+      <c r="E70" s="86"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
@@ -1968,7 +1970,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="82"/>
+      <c r="E71" s="86"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
@@ -1981,7 +1983,7 @@
       <c r="D72" s="18">
         <v>24</v>
       </c>
-      <c r="E72" s="82"/>
+      <c r="E72" s="86"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="61"/>
@@ -2010,7 +2012,7 @@
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
-      <c r="E75" s="82">
+      <c r="E75" s="86">
         <f>SUM(D78:D80)</f>
         <v>14</v>
       </c>
@@ -2024,7 +2026,7 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="82"/>
+      <c r="E76" s="86"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
@@ -2037,7 +2039,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="56"/>
-      <c r="E77" s="82"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2052,7 +2054,7 @@
       <c r="D78" s="56">
         <v>14</v>
       </c>
-      <c r="E78" s="82"/>
+      <c r="E78" s="86"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="65"/>
@@ -2081,7 +2083,7 @@
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
-      <c r="E81" s="82">
+      <c r="E81" s="86">
         <f>SUM(D82:D84)</f>
         <v>2</v>
       </c>
@@ -2095,7 +2097,7 @@
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="82"/>
+      <c r="E82" s="86"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="55" t="s">
@@ -2108,7 +2110,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="56"/>
-      <c r="E83" s="82"/>
+      <c r="E83" s="86"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
@@ -2123,16 +2125,16 @@
       <c r="D84" s="56">
         <v>2</v>
       </c>
-      <c r="E84" s="82"/>
+      <c r="E84" s="86"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="83">
+      <c r="A86" s="85">
         <v>45322</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
@@ -2169,7 +2171,7 @@
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
-      <c r="E89" s="82">
+      <c r="E89" s="86">
         <f>SUM(D92)</f>
         <v>24</v>
       </c>
@@ -2183,7 +2185,7 @@
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="82"/>
+      <c r="E90" s="86"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
@@ -2194,7 +2196,7 @@
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="82"/>
+      <c r="E91" s="86"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
@@ -2207,7 +2209,7 @@
       <c r="D92" s="18">
         <v>24</v>
       </c>
-      <c r="E92" s="82"/>
+      <c r="E92" s="86"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="61"/>
@@ -2235,7 +2237,7 @@
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="82">
+      <c r="E95" s="86">
         <f>SUM(D98:D100)</f>
         <v>10</v>
       </c>
@@ -2249,7 +2251,7 @@
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="82"/>
+      <c r="E96" s="86"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
@@ -2262,7 +2264,7 @@
         <v>21</v>
       </c>
       <c r="D97" s="18"/>
-      <c r="E97" s="82"/>
+      <c r="E97" s="86"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -2277,7 +2279,7 @@
       <c r="D98" s="18">
         <v>10</v>
       </c>
-      <c r="E98" s="82"/>
+      <c r="E98" s="86"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="63"/>
@@ -2306,7 +2308,7 @@
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="82">
+      <c r="E101" s="86">
         <f>SUM(D102:D104)</f>
         <v>2</v>
       </c>
@@ -2320,7 +2322,7 @@
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
-      <c r="E102" s="82"/>
+      <c r="E102" s="86"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
@@ -2333,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="56"/>
-      <c r="E103" s="82"/>
+      <c r="E103" s="86"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="55" t="s">
@@ -2348,16 +2350,10 @@
       <c r="D104" s="56">
         <v>2</v>
       </c>
-      <c r="E104" s="82"/>
+      <c r="E104" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E55:E57"/>
     <mergeCell ref="E89:E92"/>
     <mergeCell ref="E101:E104"/>
     <mergeCell ref="A1:E1"/>
@@ -2374,6 +2370,12 @@
     <mergeCell ref="A66:E66"/>
     <mergeCell ref="E95:E98"/>
     <mergeCell ref="E81:E84"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E55:E57"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2877,7 +2879,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:E70"/>
+      <selection activeCell="A79" sqref="A79:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,13 +2891,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83">
+      <c r="A1" s="85">
         <v>45325</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -2932,7 +2934,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="84">
+      <c r="E4" s="82">
         <f>SUM(D7:D8)</f>
         <v>3</v>
       </c>
@@ -2946,7 +2948,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="85"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2957,7 +2959,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="86"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -2984,13 +2986,13 @@
       <c r="E8" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="A10" s="85">
         <v>45327</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -3027,7 +3029,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="84">
+      <c r="E13" s="82">
         <f>SUM(D16:D17)</f>
         <v>40</v>
       </c>
@@ -3041,7 +3043,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="85"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3052,7 +3054,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="86"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -3083,13 +3085,13 @@
       <c r="E17" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="A19" s="85">
         <v>45328</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -3126,7 +3128,7 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="84">
+      <c r="E22" s="82">
         <f>SUM(D25:D26)</f>
         <v>30</v>
       </c>
@@ -3140,7 +3142,7 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="85"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -3151,7 +3153,7 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="86"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -3189,13 +3191,13 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="83">
+      <c r="A28" s="85">
         <v>45329</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -3232,7 +3234,7 @@
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="84">
+      <c r="E31" s="82">
         <f>SUM(D34:D35)</f>
         <v>40</v>
       </c>
@@ -3246,7 +3248,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="85"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -3257,7 +3259,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="86"/>
+      <c r="E33" s="84"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -3288,13 +3290,13 @@
       <c r="E35" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
+      <c r="A37" s="85">
         <v>45329</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
@@ -3331,7 +3333,7 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="84">
+      <c r="E40" s="82">
         <f>SUM(D43:D44)</f>
         <v>10</v>
       </c>
@@ -3345,7 +3347,7 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="85"/>
+      <c r="E41" s="83"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -3356,7 +3358,7 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="86"/>
+      <c r="E42" s="84"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
@@ -3372,13 +3374,13 @@
       <c r="E43" s="23"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="83">
+      <c r="A45" s="85">
         <v>45329</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
@@ -3530,13 +3532,13 @@
       <c r="E58" s="21"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="83">
+      <c r="A61" s="85">
         <v>45323</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
@@ -3573,7 +3575,7 @@
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="82">
+      <c r="E64" s="86">
         <f>SUM(D67:D69)</f>
         <v>10</v>
       </c>
@@ -3587,7 +3589,7 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="82"/>
+      <c r="E65" s="86"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
@@ -3600,7 +3602,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="82"/>
+      <c r="E66" s="86"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -3615,16 +3617,16 @@
       <c r="D67" s="18">
         <v>10</v>
       </c>
-      <c r="E67" s="82"/>
+      <c r="E67" s="86"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="83">
+      <c r="A70" s="85">
         <v>45324</v>
       </c>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
@@ -3661,7 +3663,7 @@
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="82">
+      <c r="E73" s="86">
         <f>SUM(D76:D78)</f>
         <v>10</v>
       </c>
@@ -3675,7 +3677,7 @@
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="82"/>
+      <c r="E74" s="86"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
@@ -3688,7 +3690,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="18"/>
-      <c r="E75" s="82"/>
+      <c r="E75" s="86"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
@@ -3703,16 +3705,16 @@
       <c r="D76" s="18">
         <v>10</v>
       </c>
-      <c r="E76" s="82"/>
+      <c r="E76" s="86"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="83">
+      <c r="A79" s="85">
         <v>45325</v>
       </c>
-      <c r="B79" s="83"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
@@ -3749,7 +3751,7 @@
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="82">
+      <c r="E82" s="86">
         <f>SUM(D85:D87)</f>
         <v>10</v>
       </c>
@@ -3763,7 +3765,7 @@
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="82"/>
+      <c r="E83" s="86"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
@@ -3776,7 +3778,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="82"/>
+      <c r="E84" s="86"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
@@ -3791,27 +3793,27 @@
       <c r="D85" s="18">
         <v>10</v>
       </c>
-      <c r="E85" s="82"/>
+      <c r="E85" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="E31:E33"/>
     <mergeCell ref="A79:E79"/>
     <mergeCell ref="E82:E85"/>
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="E64:E67"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="E73:E76"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3825,7 +3827,7 @@
   </sheetPr>
   <dimension ref="A1:AK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
@@ -4682,4 +4684,129 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77062D6-FAE3-4797-94A1-B3A0D136A88C}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="89.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="85">
+        <v>45352</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="86">
+        <f>SUM(D7:D9)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="86"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="86"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="18">
+        <v>10</v>
+      </c>
+      <c r="E7" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E4:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E4EDC2-7761-49FD-ABF9-46095F9F91CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/METRADO DIARIO 2024/Metrado Diario 2024 palacio TIC.xlsx
+++ b/METRADO DIARIO 2024/Metrado Diario 2024 palacio TIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\METRADO DIARIO 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3C1463-2E2E-40BF-A800-0C5EC08DCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2130CBA-F656-403C-BD8F-15423470B672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{B2598447-71B1-4FB3-A2FD-33384CB0F07F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{B2598447-71B1-4FB3-A2FD-33384CB0F07F}"/>
   </bookViews>
   <sheets>
     <sheet name="METRADO DIARIO ENERO" sheetId="2" r:id="rId1"/>
@@ -819,6 +819,12 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,12 +832,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,13 +1184,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="85">
+      <c r="A1" s="83">
         <v>45313</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="82">
+      <c r="E4" s="84">
         <f>SUM(D7:D8)</f>
         <v>40</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="83"/>
+      <c r="E5" s="85"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="84"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -1285,13 +1285,13 @@
       <c r="E8" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="85">
+      <c r="A10" s="83">
         <v>45314</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="82">
+      <c r="E13" s="84">
         <f>SUM(D16:D17)</f>
         <v>40</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="83"/>
+      <c r="E14" s="85"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="84"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
@@ -1382,13 +1382,13 @@
       <c r="E17" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="85">
+      <c r="A19" s="83">
         <v>45315</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="82">
+      <c r="E22" s="84">
         <f>SUM(D25:D26)</f>
         <v>30</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="83"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="84"/>
+      <c r="E24" s="86"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
@@ -1486,13 +1486,13 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+      <c r="A28" s="83">
         <v>45316</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="82">
+      <c r="E31" s="84">
         <f>SUM(D34:D35)</f>
         <v>40</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="83"/>
+      <c r="E32" s="85"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="84"/>
+      <c r="E33" s="86"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
@@ -1583,13 +1583,13 @@
       <c r="E35" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="85">
+      <c r="A37" s="83">
         <v>45317</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="82">
+      <c r="E40" s="84">
         <f>SUM(D43:D45)</f>
         <v>40</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="83"/>
+      <c r="E41" s="85"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="84"/>
+      <c r="E42" s="86"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
@@ -1674,13 +1674,13 @@
       <c r="E44" s="23"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="85">
+      <c r="A46" s="83">
         <v>45320</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="82">
+      <c r="E49" s="84">
         <f>SUM(D52)</f>
         <v>12</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="83"/>
+      <c r="E50" s="85"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="83"/>
+      <c r="E51" s="85"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
@@ -1755,7 +1755,7 @@
       <c r="D52" s="18">
         <v>12</v>
       </c>
-      <c r="E52" s="84"/>
+      <c r="E52" s="86"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="86">
+      <c r="E55" s="82">
         <f>SUM(D58:D59)</f>
         <v>4</v>
       </c>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="86"/>
+      <c r="E56" s="82"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
@@ -1811,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="86"/>
+      <c r="E57" s="82"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
-      <c r="E61" s="82">
+      <c r="E61" s="84">
         <f>SUM(D62:D64)</f>
         <v>7</v>
       </c>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="83"/>
+      <c r="E62" s="85"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
@@ -1882,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="18"/>
-      <c r="E63" s="83"/>
+      <c r="E63" s="85"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
@@ -1897,16 +1897,16 @@
       <c r="D64" s="18">
         <v>7</v>
       </c>
-      <c r="E64" s="84"/>
+      <c r="E64" s="86"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="85">
+      <c r="A66" s="83">
         <v>45321</v>
       </c>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="86">
+      <c r="E68" s="82">
         <f>SUM(D72)</f>
         <v>24</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="86"/>
+      <c r="E69" s="82"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="86"/>
+      <c r="E70" s="82"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
@@ -1970,7 +1970,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="86"/>
+      <c r="E71" s="82"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
@@ -1983,7 +1983,7 @@
       <c r="D72" s="18">
         <v>24</v>
       </c>
-      <c r="E72" s="86"/>
+      <c r="E72" s="82"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="61"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
-      <c r="E75" s="86">
+      <c r="E75" s="82">
         <f>SUM(D78:D80)</f>
         <v>14</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="86"/>
+      <c r="E76" s="82"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
@@ -2039,7 +2039,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="56"/>
-      <c r="E77" s="86"/>
+      <c r="E77" s="82"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2054,7 +2054,7 @@
       <c r="D78" s="56">
         <v>14</v>
       </c>
-      <c r="E78" s="86"/>
+      <c r="E78" s="82"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="65"/>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
-      <c r="E81" s="86">
+      <c r="E81" s="82">
         <f>SUM(D82:D84)</f>
         <v>2</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="86"/>
+      <c r="E82" s="82"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="55" t="s">
@@ -2110,7 +2110,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="56"/>
-      <c r="E83" s="86"/>
+      <c r="E83" s="82"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
@@ -2125,16 +2125,16 @@
       <c r="D84" s="56">
         <v>2</v>
       </c>
-      <c r="E84" s="86"/>
+      <c r="E84" s="82"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="85">
+      <c r="A86" s="83">
         <v>45322</v>
       </c>
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
-      <c r="E89" s="86">
+      <c r="E89" s="82">
         <f>SUM(D92)</f>
         <v>24</v>
       </c>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="86"/>
+      <c r="E90" s="82"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="86"/>
+      <c r="E91" s="82"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
@@ -2209,7 +2209,7 @@
       <c r="D92" s="18">
         <v>24</v>
       </c>
-      <c r="E92" s="86"/>
+      <c r="E92" s="82"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="61"/>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="86">
+      <c r="E95" s="82">
         <f>SUM(D98:D100)</f>
         <v>10</v>
       </c>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="86"/>
+      <c r="E96" s="82"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
@@ -2264,7 +2264,7 @@
         <v>21</v>
       </c>
       <c r="D97" s="18"/>
-      <c r="E97" s="86"/>
+      <c r="E97" s="82"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -2279,7 +2279,7 @@
       <c r="D98" s="18">
         <v>10</v>
       </c>
-      <c r="E98" s="86"/>
+      <c r="E98" s="82"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="63"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="86">
+      <c r="E101" s="82">
         <f>SUM(D102:D104)</f>
         <v>2</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
-      <c r="E102" s="86"/>
+      <c r="E102" s="82"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
@@ -2335,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="56"/>
-      <c r="E103" s="86"/>
+      <c r="E103" s="82"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="55" t="s">
@@ -2350,10 +2350,16 @@
       <c r="D104" s="56">
         <v>2</v>
       </c>
-      <c r="E104" s="86"/>
+      <c r="E104" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E55:E57"/>
     <mergeCell ref="E89:E92"/>
     <mergeCell ref="E101:E104"/>
     <mergeCell ref="A1:E1"/>
@@ -2370,12 +2376,6 @@
     <mergeCell ref="A66:E66"/>
     <mergeCell ref="E95:E98"/>
     <mergeCell ref="E81:E84"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E55:E57"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2390,7 +2390,7 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -2878,7 +2878,7 @@
   </sheetPr>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79:E85"/>
     </sheetView>
   </sheetViews>
@@ -2891,13 +2891,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="85">
+      <c r="A1" s="83">
         <v>45325</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="82">
+      <c r="E4" s="84">
         <f>SUM(D7:D8)</f>
         <v>3</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="83"/>
+      <c r="E5" s="85"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="84"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -2986,13 +2986,13 @@
       <c r="E8" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="85">
+      <c r="A10" s="83">
         <v>45327</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="82">
+      <c r="E13" s="84">
         <f>SUM(D16:D17)</f>
         <v>40</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="83"/>
+      <c r="E14" s="85"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="84"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -3085,13 +3085,13 @@
       <c r="E17" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="85">
+      <c r="A19" s="83">
         <v>45328</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="82">
+      <c r="E22" s="84">
         <f>SUM(D25:D26)</f>
         <v>30</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="83"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="84"/>
+      <c r="E24" s="86"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -3191,13 +3191,13 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+      <c r="A28" s="83">
         <v>45329</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="82">
+      <c r="E31" s="84">
         <f>SUM(D34:D35)</f>
         <v>40</v>
       </c>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="83"/>
+      <c r="E32" s="85"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="84"/>
+      <c r="E33" s="86"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -3290,13 +3290,13 @@
       <c r="E35" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="85">
+      <c r="A37" s="83">
         <v>45329</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="82">
+      <c r="E40" s="84">
         <f>SUM(D43:D44)</f>
         <v>10</v>
       </c>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="83"/>
+      <c r="E41" s="85"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="84"/>
+      <c r="E42" s="86"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
@@ -3374,13 +3374,13 @@
       <c r="E43" s="23"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="85">
+      <c r="A45" s="83">
         <v>45329</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
@@ -3532,13 +3532,13 @@
       <c r="E58" s="21"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="85">
+      <c r="A61" s="83">
         <v>45323</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="86">
+      <c r="E64" s="82">
         <f>SUM(D67:D69)</f>
         <v>10</v>
       </c>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="86"/>
+      <c r="E65" s="82"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
@@ -3602,7 +3602,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="86"/>
+      <c r="E66" s="82"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -3617,16 +3617,16 @@
       <c r="D67" s="18">
         <v>10</v>
       </c>
-      <c r="E67" s="86"/>
+      <c r="E67" s="82"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="85">
+      <c r="A70" s="83">
         <v>45324</v>
       </c>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="86">
+      <c r="E73" s="82">
         <f>SUM(D76:D78)</f>
         <v>10</v>
       </c>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="86"/>
+      <c r="E74" s="82"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
@@ -3690,7 +3690,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="18"/>
-      <c r="E75" s="86"/>
+      <c r="E75" s="82"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
@@ -3705,16 +3705,16 @@
       <c r="D76" s="18">
         <v>10</v>
       </c>
-      <c r="E76" s="86"/>
+      <c r="E76" s="82"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="85">
+      <c r="A79" s="83">
         <v>45325</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="86">
+      <c r="E82" s="82">
         <f>SUM(D85:D87)</f>
         <v>10</v>
       </c>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="86"/>
+      <c r="E83" s="82"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
@@ -3778,7 +3778,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="86"/>
+      <c r="E84" s="82"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
@@ -3793,27 +3793,27 @@
       <c r="D85" s="18">
         <v>10</v>
       </c>
-      <c r="E85" s="86"/>
+      <c r="E85" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="E31:E33"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="E73:E76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4690,7 +4690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77062D6-FAE3-4797-94A1-B3A0D136A88C}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4703,13 +4703,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="85">
+      <c r="A1" s="83">
         <v>45352</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="86">
+      <c r="E4" s="82">
         <f>SUM(D7:D9)</f>
         <v>10</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="86"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -4773,7 +4773,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="86"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -4788,7 +4788,7 @@
       <c r="D7" s="18">
         <v>10</v>
       </c>
-      <c r="E7" s="86"/>
+      <c r="E7" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/METRADO DIARIO 2024/Metrado Diario 2024 palacio TIC.xlsx
+++ b/METRADO DIARIO 2024/Metrado Diario 2024 palacio TIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\METRADO DIARIO 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2130CBA-F656-403C-BD8F-15423470B672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7135005-0421-4F80-BAE3-F40ED888636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{B2598447-71B1-4FB3-A2FD-33384CB0F07F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{B2598447-71B1-4FB3-A2FD-33384CB0F07F}"/>
   </bookViews>
   <sheets>
     <sheet name="METRADO DIARIO ENERO" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="80">
   <si>
     <t>SOLUCIONES DE TECNOLOGÍA DE INFORMACIÓN Y COMUNICACIONES (TIC)</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>PLACA SALIDA DOBLE DE DATA PISO 1er NIVEL</t>
+  </si>
+  <si>
+    <t>MARZO</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -819,21 +822,21 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,6 +853,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,13 +1200,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83">
+      <c r="A1" s="85">
         <v>45313</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -1227,7 +1243,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="84">
+      <c r="E4" s="82">
         <f>SUM(D7:D8)</f>
         <v>40</v>
       </c>
@@ -1245,7 +1261,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="85"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1256,7 +1272,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="86"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -1285,13 +1301,13 @@
       <c r="E8" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="A10" s="85">
         <v>45314</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -1328,7 +1344,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="84">
+      <c r="E13" s="82">
         <f>SUM(D16:D17)</f>
         <v>40</v>
       </c>
@@ -1342,7 +1358,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="85"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1353,7 +1369,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="86"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
@@ -1382,13 +1398,13 @@
       <c r="E17" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="A19" s="85">
         <v>45315</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -1425,7 +1441,7 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="84">
+      <c r="E22" s="82">
         <f>SUM(D25:D26)</f>
         <v>30</v>
       </c>
@@ -1439,7 +1455,7 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="85"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -1450,7 +1466,7 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="86"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
@@ -1486,13 +1502,13 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="83">
+      <c r="A28" s="85">
         <v>45316</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -1529,7 +1545,7 @@
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="84">
+      <c r="E31" s="82">
         <f>SUM(D34:D35)</f>
         <v>40</v>
       </c>
@@ -1543,7 +1559,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="85"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -1554,7 +1570,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="86"/>
+      <c r="E33" s="84"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
@@ -1583,13 +1599,13 @@
       <c r="E35" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
+      <c r="A37" s="85">
         <v>45317</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
@@ -1626,7 +1642,7 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="84">
+      <c r="E40" s="82">
         <f>SUM(D43:D45)</f>
         <v>40</v>
       </c>
@@ -1640,7 +1656,7 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="85"/>
+      <c r="E41" s="83"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -1651,7 +1667,7 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="86"/>
+      <c r="E42" s="84"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
@@ -1674,13 +1690,13 @@
       <c r="E44" s="23"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="83">
+      <c r="A46" s="85">
         <v>45320</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
@@ -1717,7 +1733,7 @@
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="84">
+      <c r="E49" s="82">
         <f>SUM(D52)</f>
         <v>12</v>
       </c>
@@ -1731,7 +1747,7 @@
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="85"/>
+      <c r="E50" s="83"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
@@ -1742,7 +1758,7 @@
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="85"/>
+      <c r="E51" s="83"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
@@ -1755,7 +1771,7 @@
       <c r="D52" s="18">
         <v>12</v>
       </c>
-      <c r="E52" s="86"/>
+      <c r="E52" s="84"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
@@ -1784,7 +1800,7 @@
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="82">
+      <c r="E55" s="86">
         <f>SUM(D58:D59)</f>
         <v>4</v>
       </c>
@@ -1798,7 +1814,7 @@
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="82"/>
+      <c r="E56" s="86"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
@@ -1811,7 +1827,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="82"/>
+      <c r="E57" s="86"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -1855,7 +1871,7 @@
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
-      <c r="E61" s="84">
+      <c r="E61" s="82">
         <f>SUM(D62:D64)</f>
         <v>7</v>
       </c>
@@ -1869,7 +1885,7 @@
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="85"/>
+      <c r="E62" s="83"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
@@ -1882,7 +1898,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="18"/>
-      <c r="E63" s="85"/>
+      <c r="E63" s="83"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
@@ -1897,16 +1913,16 @@
       <c r="D64" s="18">
         <v>7</v>
       </c>
-      <c r="E64" s="86"/>
+      <c r="E64" s="84"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="83">
+      <c r="A66" s="85">
         <v>45321</v>
       </c>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
@@ -1932,7 +1948,7 @@
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="82">
+      <c r="E68" s="86">
         <f>SUM(D72)</f>
         <v>24</v>
       </c>
@@ -1946,7 +1962,7 @@
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="82"/>
+      <c r="E69" s="86"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -1957,7 +1973,7 @@
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="82"/>
+      <c r="E70" s="86"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
@@ -1970,7 +1986,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="82"/>
+      <c r="E71" s="86"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
@@ -1983,7 +1999,7 @@
       <c r="D72" s="18">
         <v>24</v>
       </c>
-      <c r="E72" s="82"/>
+      <c r="E72" s="86"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="61"/>
@@ -2012,7 +2028,7 @@
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
-      <c r="E75" s="82">
+      <c r="E75" s="86">
         <f>SUM(D78:D80)</f>
         <v>14</v>
       </c>
@@ -2026,7 +2042,7 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="82"/>
+      <c r="E76" s="86"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
@@ -2039,7 +2055,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="56"/>
-      <c r="E77" s="82"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2054,7 +2070,7 @@
       <c r="D78" s="56">
         <v>14</v>
       </c>
-      <c r="E78" s="82"/>
+      <c r="E78" s="86"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="65"/>
@@ -2083,7 +2099,7 @@
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
-      <c r="E81" s="82">
+      <c r="E81" s="86">
         <f>SUM(D82:D84)</f>
         <v>2</v>
       </c>
@@ -2097,7 +2113,7 @@
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="82"/>
+      <c r="E82" s="86"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="55" t="s">
@@ -2110,7 +2126,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="56"/>
-      <c r="E83" s="82"/>
+      <c r="E83" s="86"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
@@ -2125,16 +2141,16 @@
       <c r="D84" s="56">
         <v>2</v>
       </c>
-      <c r="E84" s="82"/>
+      <c r="E84" s="86"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="83">
+      <c r="A86" s="85">
         <v>45322</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
@@ -2171,7 +2187,7 @@
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
-      <c r="E89" s="82">
+      <c r="E89" s="86">
         <f>SUM(D92)</f>
         <v>24</v>
       </c>
@@ -2185,7 +2201,7 @@
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="82"/>
+      <c r="E90" s="86"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
@@ -2196,7 +2212,7 @@
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="82"/>
+      <c r="E91" s="86"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
@@ -2209,7 +2225,7 @@
       <c r="D92" s="18">
         <v>24</v>
       </c>
-      <c r="E92" s="82"/>
+      <c r="E92" s="86"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="61"/>
@@ -2237,7 +2253,7 @@
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="82">
+      <c r="E95" s="86">
         <f>SUM(D98:D100)</f>
         <v>10</v>
       </c>
@@ -2251,7 +2267,7 @@
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="82"/>
+      <c r="E96" s="86"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
@@ -2264,7 +2280,7 @@
         <v>21</v>
       </c>
       <c r="D97" s="18"/>
-      <c r="E97" s="82"/>
+      <c r="E97" s="86"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -2279,7 +2295,7 @@
       <c r="D98" s="18">
         <v>10</v>
       </c>
-      <c r="E98" s="82"/>
+      <c r="E98" s="86"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="63"/>
@@ -2308,7 +2324,7 @@
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="82">
+      <c r="E101" s="86">
         <f>SUM(D102:D104)</f>
         <v>2</v>
       </c>
@@ -2322,7 +2338,7 @@
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
-      <c r="E102" s="82"/>
+      <c r="E102" s="86"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
@@ -2335,7 +2351,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="56"/>
-      <c r="E103" s="82"/>
+      <c r="E103" s="86"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="55" t="s">
@@ -2350,16 +2366,10 @@
       <c r="D104" s="56">
         <v>2</v>
       </c>
-      <c r="E104" s="82"/>
+      <c r="E104" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E55:E57"/>
     <mergeCell ref="E89:E92"/>
     <mergeCell ref="E101:E104"/>
     <mergeCell ref="A1:E1"/>
@@ -2376,6 +2386,12 @@
     <mergeCell ref="A66:E66"/>
     <mergeCell ref="E95:E98"/>
     <mergeCell ref="E81:E84"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E55:E57"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2390,7 +2406,7 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -2878,8 +2894,8 @@
   </sheetPr>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:E85"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,13 +2907,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83">
+      <c r="A1" s="85">
         <v>45325</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -2934,7 +2950,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="84">
+      <c r="E4" s="82">
         <f>SUM(D7:D8)</f>
         <v>3</v>
       </c>
@@ -2948,7 +2964,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="85"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2959,7 +2975,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="86"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -2986,13 +3002,13 @@
       <c r="E8" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="A10" s="85">
         <v>45327</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -3029,7 +3045,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="84">
+      <c r="E13" s="82">
         <f>SUM(D16:D17)</f>
         <v>40</v>
       </c>
@@ -3043,7 +3059,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="85"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3054,7 +3070,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="86"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -3085,13 +3101,13 @@
       <c r="E17" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="A19" s="85">
         <v>45328</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -3128,7 +3144,7 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="84">
+      <c r="E22" s="82">
         <f>SUM(D25:D26)</f>
         <v>30</v>
       </c>
@@ -3142,7 +3158,7 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="85"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -3153,7 +3169,7 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="86"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -3191,13 +3207,13 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="83">
+      <c r="A28" s="85">
         <v>45329</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -3234,7 +3250,7 @@
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="84">
+      <c r="E31" s="82">
         <f>SUM(D34:D35)</f>
         <v>40</v>
       </c>
@@ -3248,7 +3264,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="85"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -3259,7 +3275,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="86"/>
+      <c r="E33" s="84"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -3290,13 +3306,13 @@
       <c r="E35" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
+      <c r="A37" s="85">
         <v>45329</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
@@ -3333,7 +3349,7 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="84">
+      <c r="E40" s="82">
         <f>SUM(D43:D44)</f>
         <v>10</v>
       </c>
@@ -3347,7 +3363,7 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="85"/>
+      <c r="E41" s="83"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -3358,7 +3374,7 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="86"/>
+      <c r="E42" s="84"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
@@ -3374,13 +3390,13 @@
       <c r="E43" s="23"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="83">
+      <c r="A45" s="85">
         <v>45329</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
@@ -3532,13 +3548,13 @@
       <c r="E58" s="21"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="83">
+      <c r="A61" s="85">
         <v>45323</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
@@ -3575,7 +3591,7 @@
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="82">
+      <c r="E64" s="86">
         <f>SUM(D67:D69)</f>
         <v>10</v>
       </c>
@@ -3589,7 +3605,7 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="82"/>
+      <c r="E65" s="86"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
@@ -3602,7 +3618,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="82"/>
+      <c r="E66" s="86"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -3617,16 +3633,16 @@
       <c r="D67" s="18">
         <v>10</v>
       </c>
-      <c r="E67" s="82"/>
+      <c r="E67" s="86"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="83">
+      <c r="A70" s="85">
         <v>45324</v>
       </c>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
@@ -3663,7 +3679,7 @@
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="82">
+      <c r="E73" s="86">
         <f>SUM(D76:D78)</f>
         <v>10</v>
       </c>
@@ -3677,7 +3693,7 @@
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="82"/>
+      <c r="E74" s="86"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
@@ -3690,7 +3706,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="18"/>
-      <c r="E75" s="82"/>
+      <c r="E75" s="86"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
@@ -3705,16 +3721,16 @@
       <c r="D76" s="18">
         <v>10</v>
       </c>
-      <c r="E76" s="82"/>
+      <c r="E76" s="86"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="83">
+      <c r="A79" s="85">
         <v>45325</v>
       </c>
-      <c r="B79" s="83"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
@@ -3751,7 +3767,7 @@
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="82">
+      <c r="E82" s="86">
         <f>SUM(D85:D87)</f>
         <v>10</v>
       </c>
@@ -3765,7 +3781,7 @@
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="82"/>
+      <c r="E83" s="86"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
@@ -3778,7 +3794,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="82"/>
+      <c r="E84" s="86"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
@@ -3793,27 +3809,27 @@
       <c r="D85" s="18">
         <v>10</v>
       </c>
-      <c r="E85" s="82"/>
+      <c r="E85" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="E31:E33"/>
     <mergeCell ref="A79:E79"/>
     <mergeCell ref="E82:E85"/>
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="E64:E67"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="E73:E76"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3828,7 +3844,7 @@
   <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+      <selection sqref="A1:AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4688,10 +4704,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77062D6-FAE3-4797-94A1-B3A0D136A88C}">
-  <dimension ref="A1:E7"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4703,13 +4722,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83">
+      <c r="A1" s="85">
         <v>45352</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -4746,8 +4765,8 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="82">
-        <f>SUM(D7:D9)</f>
+      <c r="E4" s="86">
+        <f>SUM(D7:D10)</f>
         <v>10</v>
       </c>
     </row>
@@ -4760,7 +4779,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="82"/>
+      <c r="E5" s="86"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -4773,7 +4792,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="82"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -4788,12 +4807,109 @@
       <c r="D7" s="18">
         <v>10</v>
       </c>
-      <c r="E7" s="82"/>
+      <c r="E7" s="86"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="85">
+        <v>45352</v>
+      </c>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="86">
+        <f>SUM(D16:D18)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="86"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="86"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="18">
+        <v>10</v>
+      </c>
+      <c r="E16" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E13:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4801,12 +4917,921 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E4EDC2-7761-49FD-ABF9-46095F9F91CA}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="79.85546875" customWidth="1"/>
+    <col min="3" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="93" customWidth="1"/>
+    <col min="10" max="15" width="3.5703125" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="93" customWidth="1"/>
+    <col min="17" max="22" width="3.5703125" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" style="93" customWidth="1"/>
+    <col min="24" max="29" width="3.5703125" customWidth="1"/>
+    <col min="30" max="30" width="3.5703125" style="93" customWidth="1"/>
+    <col min="31" max="37" width="3.5703125" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" customWidth="1"/>
+    <col min="39" max="39" width="11" customWidth="1"/>
+    <col min="40" max="40" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN1" s="89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
+        <v>2</v>
+      </c>
+      <c r="I2" s="16">
+        <v>3</v>
+      </c>
+      <c r="J2" s="16">
+        <v>4</v>
+      </c>
+      <c r="K2" s="16">
+        <v>5</v>
+      </c>
+      <c r="L2" s="16">
+        <v>6</v>
+      </c>
+      <c r="M2" s="16">
+        <v>7</v>
+      </c>
+      <c r="N2" s="16">
+        <v>8</v>
+      </c>
+      <c r="O2" s="16">
+        <v>9</v>
+      </c>
+      <c r="P2" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>11</v>
+      </c>
+      <c r="R2" s="16">
+        <v>12</v>
+      </c>
+      <c r="S2" s="16">
+        <v>13</v>
+      </c>
+      <c r="T2" s="16">
+        <v>14</v>
+      </c>
+      <c r="U2" s="16">
+        <v>15</v>
+      </c>
+      <c r="V2" s="16">
+        <v>16</v>
+      </c>
+      <c r="W2" s="16">
+        <v>17</v>
+      </c>
+      <c r="X2" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>26</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>27</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>28</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>29</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>30</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>31</v>
+      </c>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="89"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="34">
+        <f>SUM(C3:AH3)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="34">
+        <f>SUM(C4:AH4)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="34">
+        <f>SUM(C5:AH5)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="34">
+        <f>SUM(C6:AH6)</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="37">
+        <f>AM6*AL6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="34">
+        <f t="shared" ref="AL7:AL15" si="0">SUM(C7:AH7)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="37"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="37"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="37"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="37">
+        <f>AM10*AL10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="37"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="37"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="37"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="37">
+        <f>AM14*AL14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="37">
+        <f>AM15*AL15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN16" s="40">
+        <f>SUM(AN6:AN15)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/METRADO DIARIO 2024/Metrado Diario 2024 palacio TIC.xlsx
+++ b/METRADO DIARIO 2024/Metrado Diario 2024 palacio TIC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\METRADO DIARIO 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño.TIC\Desktop\Repositorio\TIC-PALACIO\METRADO DIARIO 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7135005-0421-4F80-BAE3-F40ED888636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B648573-BFCD-4BEF-898D-62F068FAE14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{B2598447-71B1-4FB3-A2FD-33384CB0F07F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{B2598447-71B1-4FB3-A2FD-33384CB0F07F}"/>
   </bookViews>
   <sheets>
     <sheet name="METRADO DIARIO ENERO" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -605,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -822,6 +833,16 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,12 +852,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,19 +868,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,7 +1245,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="82">
+      <c r="E4" s="86">
         <f>SUM(D7:D8)</f>
         <v>40</v>
       </c>
@@ -1261,7 +1263,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="83"/>
+      <c r="E5" s="87"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1272,7 +1274,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="84"/>
+      <c r="E6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -1344,7 +1346,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="82">
+      <c r="E13" s="86">
         <f>SUM(D16:D17)</f>
         <v>40</v>
       </c>
@@ -1358,7 +1360,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="83"/>
+      <c r="E14" s="87"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1369,7 +1371,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="84"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
@@ -1441,7 +1443,7 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="82">
+      <c r="E22" s="86">
         <f>SUM(D25:D26)</f>
         <v>30</v>
       </c>
@@ -1455,7 +1457,7 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="83"/>
+      <c r="E23" s="87"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -1466,7 +1468,7 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="84"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
@@ -1545,7 +1547,7 @@
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="82">
+      <c r="E31" s="86">
         <f>SUM(D34:D35)</f>
         <v>40</v>
       </c>
@@ -1559,7 +1561,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="83"/>
+      <c r="E32" s="87"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -1570,7 +1572,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="84"/>
+      <c r="E33" s="88"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
@@ -1642,7 +1644,7 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="82">
+      <c r="E40" s="86">
         <f>SUM(D43:D45)</f>
         <v>40</v>
       </c>
@@ -1656,7 +1658,7 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="83"/>
+      <c r="E41" s="87"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -1667,7 +1669,7 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="84"/>
+      <c r="E42" s="88"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
@@ -1733,7 +1735,7 @@
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="82">
+      <c r="E49" s="86">
         <f>SUM(D52)</f>
         <v>12</v>
       </c>
@@ -1747,7 +1749,7 @@
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="83"/>
+      <c r="E50" s="87"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
@@ -1758,7 +1760,7 @@
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="83"/>
+      <c r="E51" s="87"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
@@ -1771,7 +1773,7 @@
       <c r="D52" s="18">
         <v>12</v>
       </c>
-      <c r="E52" s="84"/>
+      <c r="E52" s="88"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
@@ -1800,7 +1802,7 @@
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="86">
+      <c r="E55" s="84">
         <f>SUM(D58:D59)</f>
         <v>4</v>
       </c>
@@ -1814,7 +1816,7 @@
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="86"/>
+      <c r="E56" s="84"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
@@ -1827,7 +1829,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="86"/>
+      <c r="E57" s="84"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -1871,7 +1873,7 @@
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
-      <c r="E61" s="82">
+      <c r="E61" s="86">
         <f>SUM(D62:D64)</f>
         <v>7</v>
       </c>
@@ -1885,7 +1887,7 @@
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="83"/>
+      <c r="E62" s="87"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
@@ -1898,7 +1900,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="18"/>
-      <c r="E63" s="83"/>
+      <c r="E63" s="87"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
@@ -1913,7 +1915,7 @@
       <c r="D64" s="18">
         <v>7</v>
       </c>
-      <c r="E64" s="84"/>
+      <c r="E64" s="88"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="85">
@@ -1948,7 +1950,7 @@
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="86">
+      <c r="E68" s="84">
         <f>SUM(D72)</f>
         <v>24</v>
       </c>
@@ -1962,7 +1964,7 @@
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="86"/>
+      <c r="E69" s="84"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -1973,7 +1975,7 @@
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="86"/>
+      <c r="E70" s="84"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
@@ -1986,7 +1988,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="86"/>
+      <c r="E71" s="84"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
@@ -1999,7 +2001,7 @@
       <c r="D72" s="18">
         <v>24</v>
       </c>
-      <c r="E72" s="86"/>
+      <c r="E72" s="84"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="61"/>
@@ -2028,7 +2030,7 @@
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
-      <c r="E75" s="86">
+      <c r="E75" s="84">
         <f>SUM(D78:D80)</f>
         <v>14</v>
       </c>
@@ -2042,7 +2044,7 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="86"/>
+      <c r="E76" s="84"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
@@ -2055,7 +2057,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="56"/>
-      <c r="E77" s="86"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2070,7 +2072,7 @@
       <c r="D78" s="56">
         <v>14</v>
       </c>
-      <c r="E78" s="86"/>
+      <c r="E78" s="84"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="65"/>
@@ -2099,7 +2101,7 @@
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
-      <c r="E81" s="86">
+      <c r="E81" s="84">
         <f>SUM(D82:D84)</f>
         <v>2</v>
       </c>
@@ -2113,7 +2115,7 @@
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="86"/>
+      <c r="E82" s="84"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="55" t="s">
@@ -2126,7 +2128,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="56"/>
-      <c r="E83" s="86"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
@@ -2141,7 +2143,7 @@
       <c r="D84" s="56">
         <v>2</v>
       </c>
-      <c r="E84" s="86"/>
+      <c r="E84" s="84"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="85">
@@ -2187,7 +2189,7 @@
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
-      <c r="E89" s="86">
+      <c r="E89" s="84">
         <f>SUM(D92)</f>
         <v>24</v>
       </c>
@@ -2201,7 +2203,7 @@
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="86"/>
+      <c r="E90" s="84"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
@@ -2212,7 +2214,7 @@
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="86"/>
+      <c r="E91" s="84"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
@@ -2225,7 +2227,7 @@
       <c r="D92" s="18">
         <v>24</v>
       </c>
-      <c r="E92" s="86"/>
+      <c r="E92" s="84"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="61"/>
@@ -2253,7 +2255,7 @@
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="86">
+      <c r="E95" s="84">
         <f>SUM(D98:D100)</f>
         <v>10</v>
       </c>
@@ -2267,7 +2269,7 @@
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="86"/>
+      <c r="E96" s="84"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
@@ -2280,7 +2282,7 @@
         <v>21</v>
       </c>
       <c r="D97" s="18"/>
-      <c r="E97" s="86"/>
+      <c r="E97" s="84"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -2295,7 +2297,7 @@
       <c r="D98" s="18">
         <v>10</v>
       </c>
-      <c r="E98" s="86"/>
+      <c r="E98" s="84"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="63"/>
@@ -2324,7 +2326,7 @@
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="86">
+      <c r="E101" s="84">
         <f>SUM(D102:D104)</f>
         <v>2</v>
       </c>
@@ -2338,7 +2340,7 @@
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
-      <c r="E102" s="86"/>
+      <c r="E102" s="84"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
@@ -2351,7 +2353,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="56"/>
-      <c r="E103" s="86"/>
+      <c r="E103" s="84"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="55" t="s">
@@ -2366,10 +2368,16 @@
       <c r="D104" s="56">
         <v>2</v>
       </c>
-      <c r="E104" s="86"/>
+      <c r="E104" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E55:E57"/>
     <mergeCell ref="E89:E92"/>
     <mergeCell ref="E101:E104"/>
     <mergeCell ref="A1:E1"/>
@@ -2386,12 +2394,6 @@
     <mergeCell ref="A66:E66"/>
     <mergeCell ref="E95:E98"/>
     <mergeCell ref="E81:E84"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E55:E57"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2422,10 +2424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="41" t="s">
         <v>16</v>
       </c>
@@ -2459,13 +2461,13 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="88" t="s">
+      <c r="N1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="88" t="s">
+      <c r="O1" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="91" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2507,9 +2509,9 @@
       <c r="M2" s="5">
         <v>31</v>
       </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2950,7 +2952,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="82">
+      <c r="E4" s="86">
         <f>SUM(D7:D8)</f>
         <v>3</v>
       </c>
@@ -2964,7 +2966,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="83"/>
+      <c r="E5" s="87"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2975,7 +2977,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="84"/>
+      <c r="E6" s="88"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -3045,7 +3047,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="82">
+      <c r="E13" s="86">
         <f>SUM(D16:D17)</f>
         <v>40</v>
       </c>
@@ -3059,7 +3061,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="83"/>
+      <c r="E14" s="87"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3070,7 +3072,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="84"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -3144,7 +3146,7 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="82">
+      <c r="E22" s="86">
         <f>SUM(D25:D26)</f>
         <v>30</v>
       </c>
@@ -3158,7 +3160,7 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="83"/>
+      <c r="E23" s="87"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -3169,7 +3171,7 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="84"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -3250,7 +3252,7 @@
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="82">
+      <c r="E31" s="86">
         <f>SUM(D34:D35)</f>
         <v>40</v>
       </c>
@@ -3264,7 +3266,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="83"/>
+      <c r="E32" s="87"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -3275,7 +3277,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="84"/>
+      <c r="E33" s="88"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -3349,7 +3351,7 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="82">
+      <c r="E40" s="86">
         <f>SUM(D43:D44)</f>
         <v>10</v>
       </c>
@@ -3363,7 +3365,7 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="83"/>
+      <c r="E41" s="87"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -3374,7 +3376,7 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="84"/>
+      <c r="E42" s="88"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
@@ -3591,7 +3593,7 @@
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="86">
+      <c r="E64" s="84">
         <f>SUM(D67:D69)</f>
         <v>10</v>
       </c>
@@ -3605,7 +3607,7 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="86"/>
+      <c r="E65" s="84"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
@@ -3618,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="86"/>
+      <c r="E66" s="84"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -3633,7 +3635,7 @@
       <c r="D67" s="18">
         <v>10</v>
       </c>
-      <c r="E67" s="86"/>
+      <c r="E67" s="84"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="85">
@@ -3679,7 +3681,7 @@
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="86">
+      <c r="E73" s="84">
         <f>SUM(D76:D78)</f>
         <v>10</v>
       </c>
@@ -3693,7 +3695,7 @@
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="86"/>
+      <c r="E74" s="84"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
@@ -3706,7 +3708,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="18"/>
-      <c r="E75" s="86"/>
+      <c r="E75" s="84"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
@@ -3721,7 +3723,7 @@
       <c r="D76" s="18">
         <v>10</v>
       </c>
-      <c r="E76" s="86"/>
+      <c r="E76" s="84"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="85">
@@ -3767,7 +3769,7 @@
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="86">
+      <c r="E82" s="84">
         <f>SUM(D85:D87)</f>
         <v>10</v>
       </c>
@@ -3781,7 +3783,7 @@
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="86"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
@@ -3794,7 +3796,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="86"/>
+      <c r="E84" s="84"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
@@ -3809,27 +3811,27 @@
       <c r="D85" s="18">
         <v>10</v>
       </c>
-      <c r="E85" s="86"/>
+      <c r="E85" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="E31:E33"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="E73:E76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3844,7 +3846,7 @@
   <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AK16"/>
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,10 +3860,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3958,13 +3960,13 @@
       <c r="AH1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="90" t="s">
+      <c r="AI1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="88" t="s">
+      <c r="AJ1" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="89" t="s">
+      <c r="AK1" s="91" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4063,9 +4065,9 @@
       <c r="AH2" s="3">
         <v>29</v>
       </c>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="89"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="91"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4709,7 +4711,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4765,7 +4767,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="86">
+      <c r="E4" s="84">
         <f>SUM(D7:D10)</f>
         <v>10</v>
       </c>
@@ -4779,7 +4781,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="86"/>
+      <c r="E5" s="84"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -4792,7 +4794,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="86"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -4807,14 +4809,14 @@
       <c r="D7" s="18">
         <v>10</v>
       </c>
-      <c r="E7" s="86"/>
+      <c r="E7" s="84"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="85">
@@ -4860,7 +4862,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="86">
+      <c r="E13" s="84">
         <f>SUM(D16:D18)</f>
         <v>10</v>
       </c>
@@ -4874,7 +4876,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="86"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -4887,7 +4889,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="86"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -4902,7 +4904,7 @@
       <c r="D16" s="18">
         <v>10</v>
       </c>
-      <c r="E16" s="86"/>
+      <c r="E16" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4922,8 +4924,8 @@
   </sheetPr>
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4931,13 +4933,13 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="79.85546875" customWidth="1"/>
     <col min="3" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" style="93" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="82" customWidth="1"/>
     <col min="10" max="15" width="3.5703125" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" style="93" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="82" customWidth="1"/>
     <col min="17" max="22" width="3.5703125" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" style="93" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" style="82" customWidth="1"/>
     <col min="24" max="29" width="3.5703125" customWidth="1"/>
-    <col min="30" max="30" width="3.5703125" style="93" customWidth="1"/>
+    <col min="30" max="30" width="3.5703125" style="82" customWidth="1"/>
     <col min="31" max="37" width="3.5703125" customWidth="1"/>
     <col min="38" max="38" width="9.140625" customWidth="1"/>
     <col min="39" max="39" width="11" customWidth="1"/>
@@ -4945,10 +4947,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
@@ -5054,13 +5056,13 @@
       <c r="AK1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="90" t="s">
+      <c r="AL1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="88" t="s">
+      <c r="AM1" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="89" t="s">
+      <c r="AN1" s="91" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5166,9 +5168,9 @@
       <c r="AK2" s="16">
         <v>31</v>
       </c>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="89"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
